--- a/data/input/employee_absence_data_42.xlsx
+++ b/data/input/employee_absence_data_42.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72164</v>
+        <v>79715</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Sofia Freitas</t>
+          <t>Oliver Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,31 +478,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45093</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>3116.27</v>
+        <v>8902.870000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4752</v>
+        <v>54487</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lavínia Cardoso</t>
+          <t>Miguel Camargo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,27 +511,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>6639.08</v>
+        <v>5996.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95669</v>
+        <v>34073</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Laura Gonçalves</t>
+          <t>Lunna Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,114 +540,114 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45092</v>
+        <v>45105</v>
       </c>
       <c r="G4" t="n">
-        <v>4489.74</v>
+        <v>9808.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72988</v>
+        <v>18482</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bella Ferreira</t>
+          <t>Ravy Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G5" t="n">
-        <v>9386.629999999999</v>
+        <v>7328.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38712</v>
+        <v>98317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Cardoso</t>
+          <t>Ana Júlia Brito</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>11330.63</v>
+        <v>7284.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40986</v>
+        <v>11661</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stella Costa</t>
+          <t>Eloah Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>3579.64</v>
+        <v>7987.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65641</v>
+        <v>17971</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Marcela Oliveira</t>
+          <t>Letícia Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,56 +656,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>2823.51</v>
+        <v>4678.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91396</v>
+        <v>95524</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafael Cassiano</t>
+          <t>Srta. Luiza Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>8355.25</v>
+        <v>4403.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33875</v>
+        <v>31766</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Sá</t>
+          <t>Ryan Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45106</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>9374.52</v>
+        <v>5454.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>167</v>
+        <v>54385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joana Melo</t>
+          <t>Valentina Cirino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>11450.04</v>
+        <v>5594.65</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_42.xlsx
+++ b/data/input/employee_absence_data_42.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79715</v>
+        <v>34525</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oliver Cavalcanti</t>
+          <t>Maria Eduarda Gomes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>8902.870000000001</v>
+        <v>9865.280000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54487</v>
+        <v>13446</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miguel Camargo</t>
+          <t>Aurora Martins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45094</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>5996.19</v>
+        <v>4636.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34073</v>
+        <v>71714</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunna Ramos</t>
+          <t>Srta. Laís Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45105</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>9808.66</v>
+        <v>7281.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18482</v>
+        <v>35287</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ravy Costela</t>
+          <t>Melissa Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,56 +569,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>7328.48</v>
+        <v>4037.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98317</v>
+        <v>33665</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Júlia Brito</t>
+          <t>Benjamin Moura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>7284.62</v>
+        <v>2970.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11661</v>
+        <v>56083</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eloah Duarte</t>
+          <t>Maria Luiza Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,111 +630,111 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>7987.61</v>
+        <v>6260.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17971</v>
+        <v>57896</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Letícia Martins</t>
+          <t>Vinicius Abreu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45088</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>4678.77</v>
+        <v>4412.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95524</v>
+        <v>90525</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Luiza Costa</t>
+          <t>Calebe Lopes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45102</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>4403.61</v>
+        <v>8757.139999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31766</v>
+        <v>1803</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ryan Pereira</t>
+          <t>Sra. Isabella Sales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45094</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>5454.03</v>
+        <v>2440.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54385</v>
+        <v>70185</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Valentina Cirino</t>
+          <t>Srta. Heloísa Marques</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>5594.65</v>
+        <v>6965.41</v>
       </c>
     </row>
   </sheetData>
